--- a/Tia_R_format.xlsx
+++ b/Tia_R_format.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90C84DA-F0C4-486A-9C1A-B3B9702B3826}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{053ECDED-252E-4BB9-B3DC-473E15E55972}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
     <sheet name="PFOS-Tia" sheetId="11" r:id="rId2"/>
-    <sheet name="PE_abu" sheetId="2" r:id="rId3"/>
-    <sheet name="MP_PFOA_Tia" sheetId="3" r:id="rId4"/>
-    <sheet name="PFOS_PFOA_abu" sheetId="4" r:id="rId5"/>
-    <sheet name="PFOS_abu" sheetId="6" r:id="rId6"/>
-    <sheet name="MP+PFOS+PFOA_Tia" sheetId="5" r:id="rId7"/>
-    <sheet name="Tia" sheetId="7" r:id="rId8"/>
-    <sheet name="Abu" sheetId="8" r:id="rId9"/>
-    <sheet name="MP-Tia" sheetId="9" r:id="rId10"/>
-    <sheet name="MP-Abu" sheetId="10" r:id="rId11"/>
+    <sheet name="PFOA-Tia" sheetId="12" r:id="rId3"/>
+    <sheet name="PE_abu" sheetId="2" r:id="rId4"/>
+    <sheet name="MP_PFOA_Tia" sheetId="3" r:id="rId5"/>
+    <sheet name="PFOS_PFOA_abu" sheetId="4" r:id="rId6"/>
+    <sheet name="PFOS_abu" sheetId="6" r:id="rId7"/>
+    <sheet name="MP+PFOS+PFOA_Tia" sheetId="5" r:id="rId8"/>
+    <sheet name="Tia" sheetId="7" r:id="rId9"/>
+    <sheet name="Abu" sheetId="8" r:id="rId10"/>
+    <sheet name="MP-Tia" sheetId="9" r:id="rId11"/>
+    <sheet name="MP-Abu" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="40">
   <si>
     <t>Replicates</t>
   </si>
@@ -160,6 +161,12 @@
   </si>
   <si>
     <t xml:space="preserve">PE+PFOS+PFOA   </t>
+  </si>
+  <si>
+    <t>first_brood</t>
+  </si>
+  <si>
+    <t>Invterval_brood</t>
   </si>
 </sst>
 </file>
@@ -1090,6 +1097,596 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C723E9B-884C-4984-BB3E-343AD2AF2E9E}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>3932.05</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>3708.58</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3429.93</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>3721.1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2526.59</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2384.38</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2499.6999999999998</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>3650.13</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>3516.58</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>3392.14</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>3604.58</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>3461.98</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2256.2800000000002</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2317.12</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>2324.5300000000002</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>3578.85</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>3.5177</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>3.6345700000000001</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>3.5346199999999999</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>3.4676200000000001</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>3.5648300000000002</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>3.51044</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>3.6160800000000002</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BCD336-0E49-4440-B8E2-01517BF53772}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -2092,7 +2689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586CDC3-9FA8-485B-975C-E490E15B16A7}">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -3386,7 +3983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F976610-F0F9-49B7-A95E-E50CA82A051F}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3958,6 +4555,616 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FE19EB-6BF7-47B2-9C87-BBE1467F2132}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>2590.66</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <f>(F2+I2)</f>
+        <v>52</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>2583.37</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
+        <v>44</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>2601.63</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>2650.88</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2310.09</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <f>(F6+I6)</f>
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>2290.9899999999998</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <f>(F7+I7)</f>
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>2295.6999999999998</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <f>(F8+I8)</f>
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>2203.0300000000002</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <f>(F9+I9)</f>
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>2539.61</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <f>(F10+I10)</f>
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>2544.69</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <f>(F11+I11)</f>
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>2606.88</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <f>(F12+I12)</f>
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>2568.98</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <f>(F13+I13)</f>
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>2271.46</v>
+      </c>
+      <c r="H14">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <f>(F14+I14)</f>
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>2290.2800000000002</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <f>(F16+I16)</f>
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>2201.0100000000002</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <f>(F17+I17)</f>
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E365E45-3217-463F-91C2-83E3985BCCB5}">
   <dimension ref="A1:X17"/>
   <sheetViews>
@@ -4726,7 +5933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E1CE40-25BD-490B-BEB1-7381A86BED5B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -5301,7 +6508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D84CB4-C01C-4D8B-B304-C3713B9EAFF9}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -5967,7 +7174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308C0C3-0380-4858-86EF-79760918E3AB}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -6553,7 +7760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3693F4-A60E-4949-8731-31CC2EF22227}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -7056,7 +8263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093F0DC5-4D44-41BD-A9F0-C128E04FB8F3}">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -7621,594 +8828,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C723E9B-884C-4984-BB3E-343AD2AF2E9E}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>3932.05</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>3708.58</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>3429.93</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>3721.1</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>2526.59</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>2384.38</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2499.6999999999998</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>3650.13</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>3516.58</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>3392.14</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>3604.58</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>3461.98</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2256.2800000000002</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>2317.12</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>2324.5300000000002</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>3578.85</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>3.5177</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>3.6345700000000001</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>3.5346199999999999</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>3.4676200000000001</v>
-      </c>
-      <c r="F22">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>3.5648300000000002</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>3.51044</v>
-      </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>3.6160800000000002</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Tia_R_format.xlsx
+++ b/Tia_R_format.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{053ECDED-252E-4BB9-B3DC-473E15E55972}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FCEE285-96FD-4915-8189-F2BE0A79ED3B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
     <sheet name="PFOS-Tia" sheetId="11" r:id="rId2"/>
     <sheet name="PFOA-Tia" sheetId="12" r:id="rId3"/>
-    <sheet name="PE_abu" sheetId="2" r:id="rId4"/>
-    <sheet name="MP_PFOA_Tia" sheetId="3" r:id="rId5"/>
-    <sheet name="PFOS_PFOA_abu" sheetId="4" r:id="rId6"/>
-    <sheet name="PFOS_abu" sheetId="6" r:id="rId7"/>
-    <sheet name="MP+PFOS+PFOA_Tia" sheetId="5" r:id="rId8"/>
-    <sheet name="Tia" sheetId="7" r:id="rId9"/>
-    <sheet name="Abu" sheetId="8" r:id="rId10"/>
-    <sheet name="MP-Tia" sheetId="9" r:id="rId11"/>
-    <sheet name="MP-Abu" sheetId="10" r:id="rId12"/>
+    <sheet name="Abu-PE" sheetId="13" r:id="rId4"/>
+    <sheet name="PE_abu" sheetId="2" r:id="rId5"/>
+    <sheet name="MP_PFOA_Tia" sheetId="3" r:id="rId6"/>
+    <sheet name="PFOS_PFOA_abu" sheetId="4" r:id="rId7"/>
+    <sheet name="PFOS_abu" sheetId="6" r:id="rId8"/>
+    <sheet name="MP+PFOS+PFOA_Tia" sheetId="5" r:id="rId9"/>
+    <sheet name="Tia" sheetId="7" r:id="rId10"/>
+    <sheet name="Abu" sheetId="8" r:id="rId11"/>
+    <sheet name="MP-Tia" sheetId="9" r:id="rId12"/>
+    <sheet name="MP-Abu" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="42">
   <si>
     <t>Replicates</t>
   </si>
@@ -167,6 +168,12 @@
   </si>
   <si>
     <t>Invterval_brood</t>
+  </si>
+  <si>
+    <t>Interval_btwnbrds</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -1097,6 +1104,573 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093F0DC5-4D44-41BD-A9F0-C128E04FB8F3}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2211.15</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2290.91</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2126.35</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2201.09</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2190.73</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2271.46</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2290.2800000000002</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2201.0100000000002</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>2310.09</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2290.9899999999998</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2295.6999999999998</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>2203.0300000000002</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>2206.37</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>2426.21</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2424.63</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>2355.71</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>2288.31</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>2233.33</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>2188.9</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>2195.63</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C723E9B-884C-4984-BB3E-343AD2AF2E9E}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -1686,7 +2260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BCD336-0E49-4440-B8E2-01517BF53772}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -2689,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586CDC3-9FA8-485B-975C-E490E15B16A7}">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -4558,7 +5132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FE19EB-6BF7-47B2-9C87-BBE1467F2132}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4772,7 +5346,7 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J14" si="1">(F6+I6)</f>
         <v>18</v>
       </c>
       <c r="K6">
@@ -4808,7 +5382,7 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K7">
@@ -4844,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K8">
@@ -4880,7 +5454,7 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K9">
@@ -4916,7 +5490,7 @@
         <v>19</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="K10">
@@ -4952,7 +5526,7 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="K11">
@@ -4988,7 +5562,7 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="K12">
@@ -5024,7 +5598,7 @@
         <v>28</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="K13">
@@ -5060,7 +5634,7 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="K14">
@@ -5165,6 +5739,582 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEC4655-DC5E-497B-9D1A-37D7E197B4C5}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3385.58</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <f>H2-F2</f>
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3641.01</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <f>H3-F3</f>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3496.68</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3695.36</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3399.68</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>3426.91</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>3440.28</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>3312.46</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>3696.1</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>3213.75</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>3585.97</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>3571.93</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2417.08</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>3459.21</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E365E45-3217-463F-91C2-83E3985BCCB5}">
   <dimension ref="A1:X17"/>
   <sheetViews>
@@ -5933,7 +7083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E1CE40-25BD-490B-BEB1-7381A86BED5B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -6508,7 +7658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D84CB4-C01C-4D8B-B304-C3713B9EAFF9}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -7174,7 +8324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308C0C3-0380-4858-86EF-79760918E3AB}">
   <dimension ref="A1:L17"/>
   <sheetViews>
@@ -7760,7 +8910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3693F4-A60E-4949-8731-31CC2EF22227}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -8261,571 +9411,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093F0DC5-4D44-41BD-A9F0-C128E04FB8F3}">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2211.15</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>2290.91</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>2126.35</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>2201.09</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2190.73</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>2271.46</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>2290.2800000000002</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>2201.0100000000002</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>2310.09</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2290.9899999999998</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>2295.6999999999998</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>2203.0300000000002</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>2206.37</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>2426.21</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>2424.63</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>2355.71</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>2288.31</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>2233.33</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>2188.9</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>2195.63</v>
-      </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Tia_R_format.xlsx
+++ b/Tia_R_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FCEE285-96FD-4915-8189-F2BE0A79ED3B}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD579060-0518-48A3-9607-FFC1B28C7EAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -5742,7 +5742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEC4655-DC5E-497B-9D1A-37D7E197B4C5}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -8326,15 +8326,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308C0C3-0380-4858-86EF-79760918E3AB}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8354,22 +8354,22 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -8398,10 +8398,13 @@
         <v>33</v>
       </c>
       <c r="J2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8409,7 +8412,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -8430,10 +8433,13 @@
         <v>35</v>
       </c>
       <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8441,7 +8447,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -8462,10 +8468,13 @@
         <v>28</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8473,7 +8482,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -8494,10 +8503,13 @@
         <v>31</v>
       </c>
       <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8526,13 +8538,13 @@
         <v>17</v>
       </c>
       <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
         <v>38</v>
       </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8561,13 +8573,13 @@
         <v>16</v>
       </c>
       <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>35</v>
       </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8596,13 +8608,13 @@
         <v>11</v>
       </c>
       <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
         <v>22</v>
       </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8628,16 +8640,16 @@
         <v>21</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
         <v>22</v>
       </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -8645,7 +8657,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -8666,10 +8678,13 @@
         <v>30</v>
       </c>
       <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8677,7 +8692,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -8698,42 +8713,34 @@
         <v>28</v>
       </c>
       <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8741,7 +8748,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -8762,10 +8769,13 @@
         <v>32</v>
       </c>
       <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -8794,13 +8804,13 @@
         <v>5</v>
       </c>
       <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
         <v>22</v>
       </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8829,13 +8839,13 @@
         <v>2</v>
       </c>
       <c r="J15">
-        <v>19</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8864,13 +8874,13 @@
         <v>1</v>
       </c>
       <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
         <v>20</v>
       </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -8899,10 +8909,10 @@
         <v>7</v>
       </c>
       <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
         <v>17</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Tia_R_format.xlsx
+++ b/Tia_R_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD579060-0518-48A3-9607-FFC1B28C7EAC}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{546C186B-E446-4C6F-A7BA-357C94667EFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Abu" sheetId="8" r:id="rId11"/>
     <sheet name="MP-Tia" sheetId="9" r:id="rId12"/>
     <sheet name="MP-Abu" sheetId="10" r:id="rId13"/>
+    <sheet name="PFOS_PFOA_Tia" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="43">
   <si>
     <t>Replicates</t>
   </si>
@@ -174,6 +175,9 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>Age_maturation</t>
   </si>
 </sst>
 </file>
@@ -4553,6 +4557,632 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FAA6E2-2C18-4E5B-A24E-BC8CE2A28683}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>2590.66</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <f>(F2+I2)</f>
+        <v>52</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>2583.37</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">(F3+I3)</f>
+        <v>44</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>2601.63</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>2650.88</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>2288.31</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <f>(F6+I6)</f>
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2233.33</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f>(F7+I7)</f>
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>2188.9</v>
+      </c>
+      <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f>(F8+I8)</f>
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>2195.63</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f>(F9+I9)</f>
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>2539.61</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <f>(F10+I10)</f>
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>2544.69</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <f>(F11+I11)</f>
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>2606.88</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <f>(F12+I12)</f>
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>2568.98</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <f>(F13+I13)</f>
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>2206.37</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <f>(F14+I14)</f>
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>2426.21</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <f>(F15+I15)</f>
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2424.63</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f>(F16+I16)</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>2355.71</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <f>(F17+I17)</f>
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F976610-F0F9-49B7-A95E-E50CA82A051F}">
   <dimension ref="A1:K17"/>
@@ -8328,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5308C0C3-0380-4858-86EF-79760918E3AB}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>

--- a/Tia_R_format.xlsx
+++ b/Tia_R_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{546C186B-E446-4C6F-A7BA-357C94667EFA}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="14_{BE4C5203-ECBC-4B86-ADAB-6B1584904168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A677D62F-A390-484E-971A-62FFC5CCACC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="13" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{F89FABE7-B489-452F-A17A-B0F28BF51457}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="44">
   <si>
     <t>Replicates</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Age_maturation</t>
+  </si>
+  <si>
+    <t>MP_PFOA</t>
   </si>
 </sst>
 </file>
@@ -4561,7 +4564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FAA6E2-2C18-4E5B-A24E-BC8CE2A28683}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -4775,7 +4778,7 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <f>(F6+I6)</f>
+        <f t="shared" ref="J6:J17" si="1">(F6+I6)</f>
         <v>20</v>
       </c>
       <c r="K6">
@@ -4811,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <f>(F7+I7)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K7">
@@ -4847,7 +4850,7 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <f>(F8+I8)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K8">
@@ -4883,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <f>(F9+I9)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K9">
@@ -4919,7 +4922,7 @@
         <v>19</v>
       </c>
       <c r="J10">
-        <f>(F10+I10)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="K10">
@@ -4955,7 +4958,7 @@
         <v>28</v>
       </c>
       <c r="J11">
-        <f>(F11+I11)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="K11">
@@ -4991,7 +4994,7 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <f>(F12+I12)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="K12">
@@ -5027,7 +5030,7 @@
         <v>28</v>
       </c>
       <c r="J13">
-        <f>(F13+I13)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="K13">
@@ -5063,7 +5066,7 @@
         <v>16</v>
       </c>
       <c r="J14">
-        <f>(F14+I14)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K14">
@@ -5099,7 +5102,7 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <f>(F15+I15)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="K15">
@@ -5135,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <f>(F16+I16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K16">
@@ -5171,7 +5174,7 @@
         <v>11</v>
       </c>
       <c r="J17">
-        <f>(F17+I17)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="K17">
@@ -7715,15 +7718,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E1CE40-25BD-490B-BEB1-7381A86BED5B}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7754,8 +7757,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7787,8 +7793,11 @@
         <f>(F2+I2)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7820,8 +7829,11 @@
         <f>(F3+I3)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7853,8 +7865,11 @@
         <f t="shared" ref="J4:J17" si="0">(F4+I4)</f>
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7886,8 +7901,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7895,7 +7913,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -7919,8 +7937,11 @@
         <f t="shared" ref="J6:J13" si="1">(F6+I6)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7928,7 +7949,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -7952,8 +7973,11 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -7961,7 +7985,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -7985,8 +8009,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7994,7 +8021,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -8018,8 +8045,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -8051,8 +8081,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8084,8 +8117,11 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -8117,8 +8153,11 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8150,8 +8189,11 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -8159,7 +8201,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -8183,8 +8225,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8192,7 +8237,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -8216,8 +8261,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8225,7 +8273,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -8249,8 +8297,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -8258,7 +8309,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -8281,6 +8332,9 @@
       <c r="J17">
         <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
